--- a/ModelSummary.xlsx
+++ b/ModelSummary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jr2sw\PycharmProjects\Skills\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6061A1A-008A-413E-BB02-97A2CDE09AF6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E364CCC-DBBA-4581-B590-C88221D20D5F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>feature_name</t>
   </si>
@@ -37,16 +37,22 @@
     <t>AGE 18-30</t>
   </si>
   <si>
+    <t>Total Working Years 0-7</t>
+  </si>
+  <si>
+    <t>Total Working Years &gt;=12</t>
+  </si>
+  <si>
     <t>Rare_Bus_Travel</t>
   </si>
   <si>
     <t>Non-Travel</t>
   </si>
   <si>
-    <t>Commute Distance 0-5mi</t>
-  </si>
-  <si>
-    <t>Commute Distance 6-10mi</t>
+    <t>Commute Distance 0-3mi</t>
+  </si>
+  <si>
+    <t>Commute Distance 3-9mi</t>
   </si>
   <si>
     <t>EnvironmentSatisfaction Survey Response 2</t>
@@ -73,13 +79,10 @@
     <t>Divorced</t>
   </si>
   <si>
-    <t>NumCompaniesWorkedAt 5-6</t>
-  </si>
-  <si>
-    <t>NumCompaniesWorkedAt 7-8</t>
-  </si>
-  <si>
-    <t>NumCompaniesWorkedAt &gt;=9</t>
+    <t>Is Male</t>
+  </si>
+  <si>
+    <t>NumCompaniesWorkedAt 0-2</t>
   </si>
   <si>
     <t>Overtime</t>
@@ -98,8 +101,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -166,7 +170,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -191,21 +195,21 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>409371</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>37976</xdr:rowOff>
+      <xdr:colOff>304610</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>76071</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC46DFFC-0E3F-4151-9DF1-D2F145529B0E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92629559-5C17-4B58-8EEF-A0ED91E1D0DD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -221,8 +225,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5572125" y="381000"/>
-          <a:ext cx="1628571" cy="990476"/>
+          <a:off x="5572125" y="190500"/>
+          <a:ext cx="1523810" cy="1028571"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -555,10 +559,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -587,7 +591,7 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>-0.43270758840420231</v>
+        <v>-0.62249951308074192</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -598,10 +602,10 @@
         <v>4</v>
       </c>
       <c r="C3">
-        <v>-0.79075186922406926</v>
+        <v>-0.62866520242557444</v>
       </c>
       <c r="D3" s="2">
-        <v>4.811091377694447E-5</v>
+        <v>3.9325593372922648E-3</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -612,10 +616,10 @@
         <v>5</v>
       </c>
       <c r="C4">
-        <v>0.7143438248833186</v>
+        <v>-0.42216008326081678</v>
       </c>
       <c r="D4" s="2">
-        <v>1.8998318998821829E-4</v>
+        <v>7.994376207592456E-2</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -626,10 +630,10 @@
         <v>6</v>
       </c>
       <c r="C5">
-        <v>1.263361723981913</v>
+        <v>0.3694885588722655</v>
       </c>
       <c r="D5" s="2">
-        <v>1.27266772480689E-3</v>
+        <v>0.1939061244713646</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -640,10 +644,10 @@
         <v>7</v>
       </c>
       <c r="C6">
-        <v>0.54186620134662855</v>
+        <v>0.68615730449025858</v>
       </c>
       <c r="D6" s="2">
-        <v>3.4207831085059791E-3</v>
+        <v>4.6022788075273351E-4</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -654,10 +658,10 @@
         <v>8</v>
       </c>
       <c r="C7">
-        <v>0.43832167887733858</v>
+        <v>1.2001555707845759</v>
       </c>
       <c r="D7" s="2">
-        <v>0.18217048191812449</v>
+        <v>2.3507913693081549E-3</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -668,10 +672,10 @@
         <v>9</v>
       </c>
       <c r="C8">
-        <v>0.64413376732019134</v>
+        <v>0.48180234993270221</v>
       </c>
       <c r="D8" s="2">
-        <v>1.2369351233308269E-2</v>
+        <v>2.0136680353475409E-2</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -682,10 +686,10 @@
         <v>10</v>
       </c>
       <c r="C9">
-        <v>0.83915739515987464</v>
+        <v>0.38462409679575787</v>
       </c>
       <c r="D9" s="2">
-        <v>2.5830963682920701E-4</v>
+        <v>7.3176560815386829E-2</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -696,10 +700,10 @@
         <v>11</v>
       </c>
       <c r="C10">
-        <v>0.90479990767068208</v>
+        <v>0.58459721099500772</v>
       </c>
       <c r="D10" s="2">
-        <v>1.1911144761098559E-4</v>
+        <v>2.3772542264257689E-2</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -710,10 +714,10 @@
         <v>12</v>
       </c>
       <c r="C11">
-        <v>0.52768951451048129</v>
+        <v>0.79212223352728173</v>
       </c>
       <c r="D11" s="2">
-        <v>4.036905590577914E-2</v>
+        <v>7.5908051150867946E-4</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -724,10 +728,10 @@
         <v>13</v>
       </c>
       <c r="C12">
-        <v>0.42660124718529691</v>
+        <v>0.86915359974916995</v>
       </c>
       <c r="D12" s="2">
-        <v>5.4865269879072837E-2</v>
+        <v>2.8714097106808431E-4</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -738,10 +742,10 @@
         <v>14</v>
       </c>
       <c r="C13">
-        <v>0.98458109269123972</v>
+        <v>0.54085408914470401</v>
       </c>
       <c r="D13" s="2">
-        <v>2.6550811144365599E-5</v>
+        <v>4.193057737311412E-2</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -752,10 +756,10 @@
         <v>15</v>
       </c>
       <c r="C14">
-        <v>0.96251719674203606</v>
+        <v>0.43547404940492851</v>
       </c>
       <c r="D14" s="2">
-        <v>4.2850946870465258E-7</v>
+        <v>5.6973745211938841E-2</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -766,10 +770,10 @@
         <v>16</v>
       </c>
       <c r="C15">
-        <v>1.4107532255734401</v>
+        <v>1.019780407114766</v>
       </c>
       <c r="D15" s="2">
-        <v>3.3886964693841268E-8</v>
+        <v>2.5264386155979891E-5</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -780,10 +784,10 @@
         <v>17</v>
       </c>
       <c r="C16">
-        <v>-0.81323746219748172</v>
+        <v>0.98247845790165556</v>
       </c>
       <c r="D16" s="2">
-        <v>8.1422070805699E-3</v>
+        <v>4.5498794480630118E-7</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -794,10 +798,10 @@
         <v>18</v>
       </c>
       <c r="C17">
-        <v>-1.023489154583817</v>
+        <v>1.403201106175642</v>
       </c>
       <c r="D17" s="2">
-        <v>9.4090585328820856E-4</v>
+        <v>5.3744813815348799E-8</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -808,10 +812,10 @@
         <v>19</v>
       </c>
       <c r="C18">
-        <v>-0.83456976054178023</v>
+        <v>-0.32628699366531261</v>
       </c>
       <c r="D18" s="2">
-        <v>4.5699055008093258E-2</v>
+        <v>7.1050055161854531E-2</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -822,10 +826,10 @@
         <v>20</v>
       </c>
       <c r="C19">
-        <v>-1.769265383897519</v>
+        <v>0.63346435003477997</v>
       </c>
       <c r="D19" s="2">
-        <v>2.6358243301751241E-21</v>
+        <v>1.079357147570134E-3</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -836,10 +840,10 @@
         <v>21</v>
       </c>
       <c r="C20">
-        <v>1.053670959245506</v>
+        <v>-1.728815806661145</v>
       </c>
       <c r="D20" s="2">
-        <v>9.1153321214513023E-6</v>
+        <v>1.3954235696267991E-20</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -850,10 +854,10 @@
         <v>22</v>
       </c>
       <c r="C21">
-        <v>1.0304779614934141</v>
+        <v>0.87632193909170952</v>
       </c>
       <c r="D21" s="2">
-        <v>2.5862607992227929E-3</v>
+        <v>2.6367731554381062E-4</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -864,10 +868,24 @@
         <v>23</v>
       </c>
       <c r="C22">
-        <v>0.8898791023401238</v>
+        <v>0.87385003702667308</v>
       </c>
       <c r="D22" s="2">
-        <v>2.5697711520559482E-4</v>
+        <v>1.3583610785911941E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23">
+        <v>0.45074419653764503</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0.12703272070559729</v>
       </c>
     </row>
   </sheetData>
